--- a/New Final Additional Format.xlsx
+++ b/New Final Additional Format.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Application Seq No</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -884,22 +887,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W25" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -908,26 +911,28 @@
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -976,70 +981,71 @@
         <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="P6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AC2:AC65001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD2:AD65001">
       <formula1>Is_Agency_Update_Case_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y2:Y65001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z2:Z65001">
       <formula1>Exam_Functionaries_Role_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X65001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y2:Y65001">
       <formula1>Name_of_Agency_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H5 H7:H65001 W2:W65001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X65001">
       <formula1>Employment_Type_list</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B5 B7:B65001 I2:I65001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I65001">
       <formula1>App_Status_list</formula1>
     </dataValidation>
   </dataValidations>
